--- a/v2/Imports/group_menu_template.xlsx
+++ b/v2/Imports/group_menu_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A2393-7EE9-4464-8947-F35A73187488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F312B-7EDD-43D7-B2AF-393C86AED2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,106 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Select one: Yes/No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Select one: Yes/No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Select one: Yes/No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Select one: Yes/No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Select one: Yes/No</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="89">
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Parent Menu</t>
+  </si>
+  <si>
+    <t>Is Create</t>
+  </si>
+  <si>
+    <t>Is Read</t>
+  </si>
+  <si>
+    <t>Is Update</t>
+  </si>
+  <si>
+    <t>Is Delete</t>
+  </si>
+  <si>
+    <t>Is Import</t>
   </si>
   <si>
     <t>General Consultation Services</t>
   </si>
   <si>
+    <t>Clinic Service</t>
+  </si>
+  <si>
     <t>Medical Checkups</t>
   </si>
   <si>
@@ -64,6 +151,9 @@
     <t>Queue Counters</t>
   </si>
   <si>
+    <t xml:space="preserve">Queue </t>
+  </si>
+  <si>
     <t>Queue Displays</t>
   </si>
   <si>
@@ -76,12 +166,18 @@
     <t>BPJS Classifications</t>
   </si>
   <si>
+    <t>BPJS</t>
+  </si>
+  <si>
     <t>System Parameters</t>
   </si>
   <si>
     <t>Physicians</t>
   </si>
   <si>
+    <t>BPJS Configuration</t>
+  </si>
+  <si>
     <t>Services</t>
   </si>
   <si>
@@ -106,6 +202,9 @@
     <t>Patients</t>
   </si>
   <si>
+    <t>Patient</t>
+  </si>
+  <si>
     <t>Family Relations</t>
   </si>
   <si>
@@ -115,6 +214,9 @@
     <t>Prescriptions</t>
   </si>
   <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
     <t>Medicament Groups</t>
   </si>
   <si>
@@ -139,6 +241,9 @@
     <t>Products</t>
   </si>
   <si>
+    <t>Inventory</t>
+  </si>
+  <si>
     <t>Product Categories</t>
   </si>
   <si>
@@ -166,6 +271,9 @@
     <t>Employees</t>
   </si>
   <si>
+    <t>Employee</t>
+  </si>
+  <si>
     <t>Sick Leave Managements</t>
   </si>
   <si>
@@ -181,6 +289,9 @@
     <t>Practitioners</t>
   </si>
   <si>
+    <t>Medical</t>
+  </si>
+  <si>
     <t>Doctor Schedules</t>
   </si>
   <si>
@@ -223,6 +334,9 @@
     <t>Users</t>
   </si>
   <si>
+    <t>Configuration</t>
+  </si>
+  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -257,6 +371,9 @@
   </si>
   <si>
     <t>Occupationals</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -343,16 +460,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:A74" headerRowCount="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G74" headerRowCount="0">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Create"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is Read"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Update"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Is Delete"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Is Import"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,385 +771,1721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
